--- a/data/trans_orig/Q5411-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8254</v>
+        <v>7721</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04021255490256798</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1380554433548659</v>
+        <v>0.1291438040498472</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7966</v>
+        <v>8235</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02686334413324471</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08901120146343658</v>
+        <v>0.09201492152938966</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>57380</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>51530</v>
+        <v>52063</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>59784</v>
@@ -816,7 +816,7 @@
         <v>0.959787445097432</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8619445566451339</v>
+        <v>0.8708561959501528</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>87089</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>81527</v>
+        <v>81258</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>89493</v>
@@ -850,7 +850,7 @@
         <v>0.9731366558667552</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.910988798536563</v>
+        <v>0.9079850784706106</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4317</v>
+        <v>4618</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01610677617254181</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08492998340445838</v>
+        <v>0.09085876822101406</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6604</v>
+        <v>6515</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1470752139368248</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4183643061111</v>
+        <v>0.4126921103810633</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -987,19 +987,19 @@
         <v>3140</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8409</v>
+        <v>7523</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04714197439013769</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01224926039067944</v>
+        <v>0.01206571610514608</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1262349596410166</v>
+        <v>0.1129325792038669</v>
       </c>
     </row>
     <row r="8">
@@ -1016,7 +1016,7 @@
         <v>50011</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46513</v>
+        <v>46212</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>50830</v>
@@ -1025,7 +1025,7 @@
         <v>0.9838932238274581</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9150700165955413</v>
+        <v>0.9091412317789844</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1037,7 +1037,7 @@
         <v>13464</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9182</v>
+        <v>9271</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>15786</v>
@@ -1046,7 +1046,7 @@
         <v>0.8529247860631752</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5816356938888999</v>
+        <v>0.5873078896189364</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1058,19 +1058,19 @@
         <v>63476</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>58207</v>
+        <v>59093</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>65800</v>
+        <v>65812</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9528580256098623</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8737650403589834</v>
+        <v>0.887067420796133</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9877507396093206</v>
+        <v>0.9879342838948539</v>
       </c>
     </row>
     <row r="9">
@@ -1162,19 +1162,19 @@
         <v>5281</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1810</v>
+        <v>1870</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9791</v>
+        <v>10784</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07360284833676188</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02522172225637449</v>
+        <v>0.02605653742934523</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1364540939523447</v>
+        <v>0.1502899345789736</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1183,19 +1183,19 @@
         <v>3306</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7911</v>
+        <v>8646</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1361766567062446</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04294982020037284</v>
+        <v>0.04330848750587213</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3258827301853881</v>
+        <v>0.3561868717177067</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1204,19 +1204,19 @@
         <v>8587</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3827</v>
+        <v>3984</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16025</v>
+        <v>15405</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08942089189374695</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03985459137646737</v>
+        <v>0.04149041198245319</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.166874096537825</v>
+        <v>0.1604207925248296</v>
       </c>
     </row>
     <row r="11">
@@ -1233,19 +1233,19 @@
         <v>66473</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>61963</v>
+        <v>60970</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>69944</v>
+        <v>69884</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9263971516632381</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8635459060476554</v>
+        <v>0.8497100654210265</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9747782777436255</v>
+        <v>0.9739434625706548</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -1254,19 +1254,19 @@
         <v>20969</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16364</v>
+        <v>15629</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23232</v>
+        <v>23224</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8638233432937554</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6741172698146125</v>
+        <v>0.6438131282822932</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9570501797996271</v>
+        <v>0.9566915124941279</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>92</v>
@@ -1275,19 +1275,19 @@
         <v>87443</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>80005</v>
+        <v>80625</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>92203</v>
+        <v>92046</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9105791081062531</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8331259034621749</v>
+        <v>0.839579207475169</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9601454086235326</v>
+        <v>0.958509588017546</v>
       </c>
     </row>
     <row r="12">
@@ -1379,19 +1379,19 @@
         <v>15795</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9557</v>
+        <v>9874</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24140</v>
+        <v>24709</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06073477660750473</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03674849919703606</v>
+        <v>0.03796640158529285</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09281996705305604</v>
+        <v>0.0950091158875286</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1400,19 +1400,19 @@
         <v>5347</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2061</v>
+        <v>2001</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11400</v>
+        <v>11481</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06235748674318736</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02402926137190427</v>
+        <v>0.02332965772608312</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1329443110279337</v>
+        <v>0.1338902761432094</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -1421,19 +1421,19 @@
         <v>21143</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13503</v>
+        <v>13787</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30802</v>
+        <v>31269</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06113715104066604</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03904583339688656</v>
+        <v>0.03986598516945184</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0890675589649369</v>
+        <v>0.0904180949081034</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>244277</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>235932</v>
+        <v>235363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>250515</v>
+        <v>250198</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9392652233924953</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9071800329469443</v>
+        <v>0.9049908841124714</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9632515008029641</v>
+        <v>0.9620335984147074</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>83</v>
@@ -1471,19 +1471,19 @@
         <v>80405</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74352</v>
+        <v>74271</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>83691</v>
+        <v>83751</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9376425132568126</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8670556889720656</v>
+        <v>0.8661097238567902</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9759707386280957</v>
+        <v>0.9766703422739168</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>343</v>
@@ -1492,19 +1492,19 @@
         <v>324681</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>315022</v>
+        <v>314555</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>332321</v>
+        <v>332037</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9388628489593339</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9109324410350631</v>
+        <v>0.9095819050918966</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9609541666031134</v>
+        <v>0.9601340148305482</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>3632</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>996</v>
+        <v>1019</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9368</v>
+        <v>8192</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06547749443870504</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01796457761568104</v>
+        <v>0.01836332717780409</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1689068825605803</v>
+        <v>0.1476944262463906</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1617,19 +1617,19 @@
         <v>15987</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9720</v>
+        <v>9412</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24434</v>
+        <v>25104</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1660969547793371</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1009842779626208</v>
+        <v>0.09778383425990324</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2538550673129858</v>
+        <v>0.2608156438930965</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -1638,19 +1638,19 @@
         <v>19619</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12399</v>
+        <v>11726</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29435</v>
+        <v>29471</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1293116358203941</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08172592428371948</v>
+        <v>0.07729213394813085</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1940131664799357</v>
+        <v>0.1942492949380894</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>51833</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46097</v>
+        <v>47273</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54469</v>
+        <v>54446</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.934522505561295</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8310931174394197</v>
+        <v>0.8523055737536092</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9820354223843191</v>
+        <v>0.9816366728221959</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>77</v>
@@ -1688,19 +1688,19 @@
         <v>80263</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>71816</v>
+        <v>71146</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>86530</v>
+        <v>86838</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8339030452206629</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7461449326870139</v>
+        <v>0.7391843561069041</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8990157220373788</v>
+        <v>0.902216165740097</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>132</v>
@@ -1709,19 +1709,19 @@
         <v>132096</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>122280</v>
+        <v>122244</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>139316</v>
+        <v>139989</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8706883641796059</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8059868335200639</v>
+        <v>0.8057507050619107</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9182740757162804</v>
+        <v>0.9227078660518692</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>37870</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26924</v>
+        <v>25707</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50441</v>
+        <v>51160</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08909158939467095</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06334037542587569</v>
+        <v>0.06047647218780697</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1186655289049393</v>
+        <v>0.1203558958143337</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -1847,19 +1847,19 @@
         <v>37870</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27220</v>
+        <v>27592</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51409</v>
+        <v>52250</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08833412165537015</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06349211592975615</v>
+        <v>0.06435957488804578</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1199130334603587</v>
+        <v>0.1218765510616235</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>387200</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>374629</v>
+        <v>373910</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>398146</v>
+        <v>399363</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.910908410605329</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8813344710950609</v>
+        <v>0.8796441041856663</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9366596245741243</v>
+        <v>0.9395235278121931</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>382</v>
@@ -1910,19 +1910,19 @@
         <v>390845</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>377306</v>
+        <v>376465</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>401495</v>
+        <v>401123</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9116658783446299</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8800869665396411</v>
+        <v>0.8781234489383745</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9365078840702437</v>
+        <v>0.9356404251119536</v>
       </c>
     </row>
     <row r="21">
@@ -2014,19 +2014,19 @@
         <v>27931</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19399</v>
+        <v>20111</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39506</v>
+        <v>39255</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05568976223724356</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03867786789278541</v>
+        <v>0.04009809827776371</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07876703138195097</v>
+        <v>0.07826786115398041</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>59</v>
@@ -2035,19 +2035,19 @@
         <v>64832</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>50093</v>
+        <v>49473</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>82171</v>
+        <v>82329</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09578562540648962</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0740095996793603</v>
+        <v>0.07309396344795066</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1214041902790307</v>
+        <v>0.1216372916765228</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>89</v>
@@ -2056,19 +2056,19 @@
         <v>92763</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>75272</v>
+        <v>74454</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>112532</v>
+        <v>110855</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07871991119414372</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06387681486961667</v>
+        <v>0.06318298511277291</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09549631387398509</v>
+        <v>0.09407309033284462</v>
       </c>
     </row>
     <row r="23">
@@ -2085,19 +2085,19 @@
         <v>473620</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>462045</v>
+        <v>462296</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>482152</v>
+        <v>481440</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9443102377627565</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.921232968618049</v>
+        <v>0.9217321388460197</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9613221321072146</v>
+        <v>0.9599019017222363</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>602</v>
@@ -2106,19 +2106,19 @@
         <v>612010</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>594671</v>
+        <v>594513</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>626749</v>
+        <v>627369</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9042143745935104</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8785958097209692</v>
+        <v>0.8783627083234772</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9259904003206396</v>
+        <v>0.9269060365520493</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1094</v>
@@ -2127,19 +2127,19 @@
         <v>1085630</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1065861</v>
+        <v>1067538</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1103121</v>
+        <v>1103939</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9212800888058563</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9045036861260152</v>
+        <v>0.9059269096671553</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9361231851303836</v>
+        <v>0.9368170148872271</v>
       </c>
     </row>
     <row r="24">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9593</v>
+        <v>10967</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07368547825506301</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.218439340273848</v>
+        <v>0.2497076677204092</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6927</v>
+        <v>6751</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08510507578415429</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2739155564908178</v>
+        <v>0.2669592222864466</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -2515,19 +2515,19 @@
         <v>5388</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1105</v>
+        <v>1123</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12491</v>
+        <v>13414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07785835087181812</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01596494758999975</v>
+        <v>0.01622607589706109</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1804828890781519</v>
+        <v>0.1938293511614789</v>
       </c>
     </row>
     <row r="5">
@@ -2544,7 +2544,7 @@
         <v>40682</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34325</v>
+        <v>32951</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>43918</v>
@@ -2553,7 +2553,7 @@
         <v>0.926314521744937</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7815606597261521</v>
+        <v>0.7502923322795911</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         <v>23137</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18362</v>
+        <v>18538</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>25289</v>
@@ -2574,7 +2574,7 @@
         <v>0.9148949242158457</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.726084443509182</v>
+        <v>0.7330407777135534</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2586,19 +2586,19 @@
         <v>63819</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>56716</v>
+        <v>55793</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68102</v>
+        <v>68084</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9221416491281819</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8195171109218483</v>
+        <v>0.8061706488385214</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9840350524100002</v>
+        <v>0.983773924102939</v>
       </c>
     </row>
     <row r="6">
@@ -2690,19 +2690,19 @@
         <v>4518</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12484</v>
+        <v>13391</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0745101523068608</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01837120980621786</v>
+        <v>0.0183476943386675</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2059108367215478</v>
+        <v>0.2208714817447201</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2711,19 +2711,19 @@
         <v>3322</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1029</v>
+        <v>1006</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7998</v>
+        <v>8018</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.175742536619114</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05443588717785641</v>
+        <v>0.05321299034797921</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.423140986878874</v>
+        <v>0.42417741521703</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -2732,19 +2732,19 @@
         <v>7839</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3261</v>
+        <v>3217</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16431</v>
+        <v>16170</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0985692488018601</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04100840895286243</v>
+        <v>0.04045102693098707</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2065938277652649</v>
+        <v>0.2033205908192533</v>
       </c>
     </row>
     <row r="8">
@@ -2761,19 +2761,19 @@
         <v>56112</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>48146</v>
+        <v>47239</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>59516</v>
+        <v>59518</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9254898476931392</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7940891632784521</v>
+        <v>0.7791285182552801</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9816287901937821</v>
+        <v>0.9816523056613325</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -2782,19 +2782,19 @@
         <v>15580</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10904</v>
+        <v>10884</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17873</v>
+        <v>17896</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.824257463380886</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5768590131211264</v>
+        <v>0.5758225847829701</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9455641128221436</v>
+        <v>0.9467870096520208</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>62</v>
@@ -2803,19 +2803,19 @@
         <v>71692</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>63100</v>
+        <v>63361</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>76270</v>
+        <v>76314</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9014307511981399</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7934061722347352</v>
+        <v>0.7966794091807466</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9589915910471376</v>
+        <v>0.959548973069013</v>
       </c>
     </row>
     <row r="9">
@@ -2907,19 +2907,19 @@
         <v>6033</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2144</v>
+        <v>2722</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12336</v>
+        <v>12332</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05084317939181881</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01807096958246787</v>
+        <v>0.02294317929803705</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1039675762833557</v>
+        <v>0.1039330677641758</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2928,19 +2928,19 @@
         <v>6500</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2201</v>
+        <v>2244</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12006</v>
+        <v>12049</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.119011331802085</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04029324809254257</v>
+        <v>0.04108018433521472</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2198208732270759</v>
+        <v>0.220619620259649</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -2949,19 +2949,19 @@
         <v>12532</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7087</v>
+        <v>6971</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20611</v>
+        <v>21090</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07232995873620152</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04090026523261547</v>
+        <v>0.04023358723502735</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1189538810192957</v>
+        <v>0.1217203609806803</v>
       </c>
     </row>
     <row r="11">
@@ -2978,19 +2978,19 @@
         <v>112620</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>106317</v>
+        <v>106321</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>116509</v>
+        <v>115931</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9491568206081812</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8960324237166443</v>
+        <v>0.8960669322358242</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9819290304175319</v>
+        <v>0.9770568207019626</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>46</v>
@@ -2999,19 +2999,19 @@
         <v>48115</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>42609</v>
+        <v>42566</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52414</v>
+        <v>52371</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.880988668197915</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.780179126772924</v>
+        <v>0.779380379740351</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9597067519074574</v>
+        <v>0.9589198156647852</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>142</v>
@@ -3020,19 +3020,19 @@
         <v>160736</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>152657</v>
+        <v>152178</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>166181</v>
+        <v>166297</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9276700412637985</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8810461189807043</v>
+        <v>0.8782796390193196</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9590997347673845</v>
+        <v>0.9597664127649725</v>
       </c>
     </row>
     <row r="12">
@@ -3124,19 +3124,19 @@
         <v>34930</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24356</v>
+        <v>24262</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48433</v>
+        <v>47906</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1507195976352794</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1050954772380656</v>
+        <v>0.1046878284703062</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2089842741213721</v>
+        <v>0.2067133121179313</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -3145,19 +3145,19 @@
         <v>13003</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7417</v>
+        <v>7147</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20274</v>
+        <v>19702</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2163770911914788</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1234232612377435</v>
+        <v>0.1189320570691704</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3373637338942451</v>
+        <v>0.3278461433350089</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -3166,19 +3166,19 @@
         <v>47933</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34065</v>
+        <v>35130</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62203</v>
+        <v>62417</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1642393088261322</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1167232169647491</v>
+        <v>0.1203693281726529</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2131352543748147</v>
+        <v>0.2138687281069158</v>
       </c>
     </row>
     <row r="14">
@@ -3195,19 +3195,19 @@
         <v>196823</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>183320</v>
+        <v>183847</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>207397</v>
+        <v>207491</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8492804023647206</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7910157258786279</v>
+        <v>0.7932866878820685</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8949045227619343</v>
+        <v>0.8953121715296938</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -3216,19 +3216,19 @@
         <v>47092</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>39821</v>
+        <v>40393</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>52678</v>
+        <v>52948</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7836229088085211</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6626362661057548</v>
+        <v>0.6721538566649913</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8765767387622564</v>
+        <v>0.88106794293083</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>230</v>
@@ -3237,19 +3237,19 @@
         <v>243915</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>229645</v>
+        <v>229431</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>257783</v>
+        <v>256718</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8357606911738679</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7868647456251854</v>
+        <v>0.7861312718930845</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.883276783035251</v>
+        <v>0.8796306718273473</v>
       </c>
     </row>
     <row r="15">
@@ -3341,19 +3341,19 @@
         <v>12740</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6456</v>
+        <v>7334</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20116</v>
+        <v>21176</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1240569677469703</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06286741389610523</v>
+        <v>0.07141623250928579</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1958758559965704</v>
+        <v>0.2061989062012073</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>50</v>
@@ -3362,19 +3362,19 @@
         <v>54379</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41922</v>
+        <v>42233</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>67861</v>
+        <v>68280</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2886381674339292</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2225142967300152</v>
+        <v>0.2241678134841975</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3601959802213245</v>
+        <v>0.3624192574269524</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>62</v>
@@ -3383,19 +3383,19 @@
         <v>67120</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53225</v>
+        <v>52959</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>82052</v>
+        <v>81668</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2305755925062619</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1828445611009102</v>
+        <v>0.1819290281727017</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2818718530601761</v>
+        <v>0.2805548385622909</v>
       </c>
     </row>
     <row r="17">
@@ -3412,19 +3412,19 @@
         <v>89956</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>82580</v>
+        <v>81520</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>96240</v>
+        <v>95362</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8759430322530296</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8041241440034295</v>
+        <v>0.7938010937987919</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9371325861038947</v>
+        <v>0.9285837674907143</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>127</v>
@@ -3433,19 +3433,19 @@
         <v>134021</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>120539</v>
+        <v>120120</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>146478</v>
+        <v>146167</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7113618325660708</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6398040197786754</v>
+        <v>0.6375807425730476</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7774857032699848</v>
+        <v>0.7758321865158023</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>211</v>
@@ -3454,19 +3454,19 @@
         <v>223976</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>209044</v>
+        <v>209428</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>237871</v>
+        <v>238137</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7694244074937381</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7181281469398239</v>
+        <v>0.7194451614377091</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8171554388990898</v>
+        <v>0.8180709718272984</v>
       </c>
     </row>
     <row r="18">
@@ -3571,19 +3571,19 @@
         <v>82756</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>65498</v>
+        <v>66779</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>98752</v>
+        <v>99766</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2096648884986666</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.165942915075979</v>
+        <v>0.1691880477214056</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2501936332265726</v>
+        <v>0.2527617203899256</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>75</v>
@@ -3592,19 +3592,19 @@
         <v>82756</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>67690</v>
+        <v>66526</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>99312</v>
+        <v>100246</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2086143101037194</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1706352986186404</v>
+        <v>0.1677010751829318</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2503510227022701</v>
+        <v>0.2527061290177096</v>
       </c>
     </row>
     <row r="20">
@@ -3634,19 +3634,19 @@
         <v>311948</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>295952</v>
+        <v>294938</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>329206</v>
+        <v>327925</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7903351115013334</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7498063667734275</v>
+        <v>0.7472382796100746</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8340570849240211</v>
+        <v>0.8308119522785945</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>295</v>
@@ -3655,19 +3655,19 @@
         <v>313936</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>297380</v>
+        <v>296446</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>329002</v>
+        <v>330166</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7913856898962807</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7496489772977297</v>
+        <v>0.7472938709822904</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8293647013813595</v>
+        <v>0.8322989248170675</v>
       </c>
     </row>
     <row r="21">
@@ -3759,19 +3759,19 @@
         <v>61456</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>47343</v>
+        <v>46468</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>78238</v>
+        <v>78774</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1098143124118763</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08459532589505496</v>
+        <v>0.08303290123879449</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1398022012955537</v>
+        <v>0.1407599269943047</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>148</v>
@@ -3780,19 +3780,19 @@
         <v>162112</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>139062</v>
+        <v>138834</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>188688</v>
+        <v>185655</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2184785478355118</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1874138550267651</v>
+        <v>0.1871063943162189</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2542952560106758</v>
+        <v>0.2502075096700466</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>201</v>
@@ -3801,19 +3801,19 @@
         <v>223568</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>196241</v>
+        <v>196688</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>253926</v>
+        <v>253426</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1717586894818001</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1507641362243486</v>
+        <v>0.1511075248818106</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1950813954086546</v>
+        <v>0.1946969700158502</v>
       </c>
     </row>
     <row r="23">
@@ -3830,19 +3830,19 @@
         <v>498181</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>481399</v>
+        <v>480863</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>512294</v>
+        <v>513169</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8901856875881238</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8601977987044463</v>
+        <v>0.8592400730056953</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.915404674104945</v>
+        <v>0.9169670987612046</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>545</v>
@@ -3851,19 +3851,19 @@
         <v>579893</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>553317</v>
+        <v>556350</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>602943</v>
+        <v>603171</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7815214521644882</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7457047439893243</v>
+        <v>0.7497924903299538</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.812586144973235</v>
+        <v>0.8128936056837811</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>996</v>
@@ -3872,19 +3872,19 @@
         <v>1078074</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1047716</v>
+        <v>1048216</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1105401</v>
+        <v>1104954</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8282413105181999</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8049186045913455</v>
+        <v>0.80530302998415</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8492358637756515</v>
+        <v>0.8488924751181894</v>
       </c>
     </row>
     <row r="24">
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7595</v>
+        <v>8898</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03369926524366901</v>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1106372453909563</v>
+        <v>0.12962013401829</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8086</v>
+        <v>8504</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07011929036884566</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2192071869202061</v>
+        <v>0.2305491183259108</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4260,19 +4260,19 @@
         <v>4900</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1304</v>
+        <v>1362</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12238</v>
+        <v>11859</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04642934829244926</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01236056205978017</v>
+        <v>0.01290671777701805</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1159599826279454</v>
+        <v>0.1123714342924022</v>
       </c>
     </row>
     <row r="5">
@@ -4289,7 +4289,7 @@
         <v>66334</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>61052</v>
+        <v>59749</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>68647</v>
@@ -4298,7 +4298,7 @@
         <v>0.9663007347563309</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8893627546090437</v>
+        <v>0.8703798659817101</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4310,7 +4310,7 @@
         <v>34301</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28802</v>
+        <v>28384</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>36888</v>
@@ -4319,7 +4319,7 @@
         <v>0.9298807096311543</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7807928130797939</v>
+        <v>0.7694508816740893</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4331,19 +4331,19 @@
         <v>100635</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>93297</v>
+        <v>93676</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>104231</v>
+        <v>104173</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9535706517075507</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8840400173720545</v>
+        <v>0.8876285657075972</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9876394379402198</v>
+        <v>0.987093282222982</v>
       </c>
     </row>
     <row r="6">
@@ -4435,19 +4435,19 @@
         <v>3832</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>997</v>
+        <v>1032</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8790</v>
+        <v>8664</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07183152658448363</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01868208885674171</v>
+        <v>0.01934594951115493</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1647835895429871</v>
+        <v>0.1624081893639677</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5638</v>
+        <v>5618</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0717301419486993</v>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.320543428582608</v>
+        <v>0.3194465677654527</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -4477,19 +4477,19 @@
         <v>5093</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1821</v>
+        <v>1833</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10418</v>
+        <v>11084</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07180638747815241</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02567185581373946</v>
+        <v>0.02583526063635611</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1468722095995277</v>
+        <v>0.1562565019662999</v>
       </c>
     </row>
     <row r="8">
@@ -4506,19 +4506,19 @@
         <v>49512</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>44554</v>
+        <v>44680</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>52347</v>
+        <v>52312</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9281684734155163</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8352164104570129</v>
+        <v>0.8375918106360322</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9813179111432583</v>
+        <v>0.980654050488845</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -4527,7 +4527,7 @@
         <v>16326</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11950</v>
+        <v>11970</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>17588</v>
@@ -4536,7 +4536,7 @@
         <v>0.9282698580513007</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6794565714173921</v>
+        <v>0.680553432234547</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -4548,19 +4548,19 @@
         <v>65839</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>60514</v>
+        <v>59848</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>69111</v>
+        <v>69099</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9281936125218476</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8531277904004723</v>
+        <v>0.843743498033701</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9743281441862606</v>
+        <v>0.974164739363644</v>
       </c>
     </row>
     <row r="9">
@@ -4652,19 +4652,19 @@
         <v>7939</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3791</v>
+        <v>4132</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14257</v>
+        <v>15569</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06601545760728791</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03152106819902927</v>
+        <v>0.03436227824506728</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1185474205373953</v>
+        <v>0.1294575333418084</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -4673,19 +4673,19 @@
         <v>4827</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1256</v>
+        <v>1286</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10317</v>
+        <v>10925</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1044684591118241</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02717535132481396</v>
+        <v>0.02783955012749511</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2232617316169143</v>
+        <v>0.2364342743842938</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -4694,19 +4694,19 @@
         <v>12766</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7525</v>
+        <v>7334</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21154</v>
+        <v>21468</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07668927361399286</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0452009133059398</v>
+        <v>0.04405307887382614</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1270721610816878</v>
+        <v>0.1289630771933759</v>
       </c>
     </row>
     <row r="11">
@@ -4723,19 +4723,19 @@
         <v>112322</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>106004</v>
+        <v>104692</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>116470</v>
+        <v>116129</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9339845423927121</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.881452579462604</v>
+        <v>0.8705424666581917</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9684789318009707</v>
+        <v>0.9656377217549328</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>33</v>
@@ -4744,19 +4744,19 @@
         <v>41382</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>35892</v>
+        <v>35284</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44953</v>
+        <v>44923</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8955315408881759</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7767382683830856</v>
+        <v>0.7635657256157059</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.972824648675186</v>
+        <v>0.9721604498725048</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>152</v>
@@ -4765,19 +4765,19 @@
         <v>153704</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>145316</v>
+        <v>145002</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>158945</v>
+        <v>159136</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9233107263860072</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8729278389183123</v>
+        <v>0.871036922806624</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9547990866940601</v>
+        <v>0.9559469211261737</v>
       </c>
     </row>
     <row r="12">
@@ -4869,19 +4869,19 @@
         <v>18291</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12059</v>
+        <v>11984</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27918</v>
+        <v>27591</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08972471819395861</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05915598655139839</v>
+        <v>0.05878769482269208</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1369495847101883</v>
+        <v>0.1353455728304563</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -4890,19 +4890,19 @@
         <v>10690</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5025</v>
+        <v>5152</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19449</v>
+        <v>19392</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1079276490548282</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05073550944054618</v>
+        <v>0.05201793739826433</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1963660338690442</v>
+        <v>0.1957915634511526</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -4911,19 +4911,19 @@
         <v>28981</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20391</v>
+        <v>18527</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40595</v>
+        <v>40119</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09567690341851792</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06731779456927844</v>
+        <v>0.06116442911824906</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1340192594708103</v>
+        <v>0.1324490617162987</v>
       </c>
     </row>
     <row r="14">
@@ -4940,19 +4940,19 @@
         <v>185565</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>175938</v>
+        <v>176265</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>191797</v>
+        <v>191872</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9102752818060414</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8630504152898114</v>
+        <v>0.8646544271695435</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9408440134486016</v>
+        <v>0.9412123051773079</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>76</v>
@@ -4961,19 +4961,19 @@
         <v>88356</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>79597</v>
+        <v>79654</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>94021</v>
+        <v>93894</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8920723509451718</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8036339661309553</v>
+        <v>0.8042084365488478</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9492644905594538</v>
+        <v>0.9479820626017357</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>273</v>
@@ -4982,19 +4982,19 @@
         <v>273921</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>262307</v>
+        <v>262783</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>282511</v>
+        <v>284375</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9043230965814821</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8659807405291897</v>
+        <v>0.8675509382837012</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9326822054307216</v>
+        <v>0.9388355708817506</v>
       </c>
     </row>
     <row r="15">
@@ -5086,19 +5086,19 @@
         <v>15480</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9030</v>
+        <v>9350</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23089</v>
+        <v>23821</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1065932846587157</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06218435004725822</v>
+        <v>0.06438255608118017</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1589919302551635</v>
+        <v>0.164031476248878</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -5107,19 +5107,19 @@
         <v>19920</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11798</v>
+        <v>11386</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29611</v>
+        <v>30034</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1248495087427528</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07394797681356394</v>
+        <v>0.0713662532202764</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1855930509902787</v>
+        <v>0.188242918106189</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -5128,19 +5128,19 @@
         <v>35399</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24668</v>
+        <v>24866</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47404</v>
+        <v>48169</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1161505748063443</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08093983565887962</v>
+        <v>0.08158967911297091</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1555403838693964</v>
+        <v>0.1580495667408107</v>
       </c>
     </row>
     <row r="17">
@@ -5157,19 +5157,19 @@
         <v>129741</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>122132</v>
+        <v>121400</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>136191</v>
+        <v>135871</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8934067153412842</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8410080697448364</v>
+        <v>0.835968523751122</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9378156499527417</v>
+        <v>0.9356174439188198</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>123</v>
@@ -5178,19 +5178,19 @@
         <v>139630</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>129939</v>
+        <v>129516</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>147752</v>
+        <v>148164</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8751504912572472</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8144069490097214</v>
+        <v>0.811757081893811</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9260520231864361</v>
+        <v>0.9286337467797237</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>265</v>
@@ -5199,19 +5199,19 @@
         <v>269372</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>257367</v>
+        <v>256602</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>280103</v>
+        <v>279905</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8838494251936556</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8444596161306038</v>
+        <v>0.8419504332591899</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9190601643411206</v>
+        <v>0.9184103208870292</v>
       </c>
     </row>
     <row r="18">
@@ -5312,19 +5312,19 @@
         <v>63401</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48641</v>
+        <v>46949</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>81616</v>
+        <v>81272</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1534830007571555</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1177521994995706</v>
+        <v>0.1136557726935652</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1975781708795962</v>
+        <v>0.1967454786945489</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>49</v>
@@ -5333,19 +5333,19 @@
         <v>63401</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48641</v>
+        <v>46949</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>81616</v>
+        <v>81272</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1534830007571555</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1177521994995706</v>
+        <v>0.1136557726935652</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1975781708795962</v>
+        <v>0.1967454786945489</v>
       </c>
     </row>
     <row r="20">
@@ -5371,19 +5371,19 @@
         <v>349682</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>331467</v>
+        <v>331811</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>364442</v>
+        <v>366134</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8465169992428445</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8024218291204039</v>
+        <v>0.8032545213054512</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8822478005004295</v>
+        <v>0.8863442273064348</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>298</v>
@@ -5392,19 +5392,19 @@
         <v>349682</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>331467</v>
+        <v>331811</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>364442</v>
+        <v>366134</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8465169992428445</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8024218291204039</v>
+        <v>0.8032545213054512</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8822478005004295</v>
+        <v>0.8863442273064348</v>
       </c>
     </row>
     <row r="21">
@@ -5484,19 +5484,19 @@
         <v>47855</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35629</v>
+        <v>36871</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>61593</v>
+        <v>60684</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08092740812815294</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06025195846788279</v>
+        <v>0.06235300748886257</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1041605946827333</v>
+        <v>0.1026239027605478</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>80</v>
@@ -5505,19 +5505,19 @@
         <v>102686</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>82670</v>
+        <v>80998</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>127682</v>
+        <v>124930</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1329506167864634</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1070349125642866</v>
+        <v>0.104870325887361</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1653135817202583</v>
+        <v>0.1617499140611689</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>133</v>
@@ -5526,19 +5526,19 @@
         <v>150541</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>128716</v>
+        <v>126322</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>177437</v>
+        <v>176431</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1103921647215371</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09438758766523485</v>
+        <v>0.09263256521298632</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1301149700284488</v>
+        <v>0.1293777283134654</v>
       </c>
     </row>
     <row r="23">
@@ -5555,19 +5555,19 @@
         <v>543473</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>529735</v>
+        <v>530644</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>555699</v>
+        <v>554457</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9190725918718471</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.895839405317267</v>
+        <v>0.897376097239452</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9397480415321174</v>
+        <v>0.9376469925111373</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>570</v>
@@ -5576,19 +5576,19 @@
         <v>669678</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>644682</v>
+        <v>647434</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>689694</v>
+        <v>691366</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8670493832135365</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8346864182797408</v>
+        <v>0.8382500859388313</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8929650874357131</v>
+        <v>0.895129674112639</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1144</v>
@@ -5597,19 +5597,19 @@
         <v>1213151</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1186255</v>
+        <v>1187261</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1234976</v>
+        <v>1237370</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8896078352784629</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8698850299715513</v>
+        <v>0.8706222716865351</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9056124123347652</v>
+        <v>0.9073674347870139</v>
       </c>
     </row>
     <row r="24">
@@ -5943,19 +5943,19 @@
         <v>2138</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5560</v>
+        <v>5351</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0177604988830218</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005013426754784965</v>
+        <v>0.004852411503413219</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04617937685617565</v>
+        <v>0.0444436986879934</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -5964,19 +5964,19 @@
         <v>2648</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>421</v>
+        <v>511</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9053</v>
+        <v>9668</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03551960093059171</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005645683044721957</v>
+        <v>0.00685403398816852</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.121416010452754</v>
+        <v>0.1296744100084966</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -5985,19 +5985,19 @@
         <v>4787</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1943</v>
+        <v>2002</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10488</v>
+        <v>11264</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02455215115556889</v>
+        <v>0.0245521511555689</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009968237296844129</v>
+        <v>0.01026894833630742</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05379557128369177</v>
+        <v>0.05777678622205944</v>
       </c>
     </row>
     <row r="5">
@@ -6014,19 +6014,19 @@
         <v>118263</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>114841</v>
+        <v>115050</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>119797</v>
+        <v>119817</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9822395011169781</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9538206231438243</v>
+        <v>0.9555563013120065</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.994986573245215</v>
+        <v>0.9951475884965865</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>129</v>
@@ -6035,19 +6035,19 @@
         <v>71911</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>65506</v>
+        <v>64891</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>74138</v>
+        <v>74048</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9644803990694085</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.878583989547246</v>
+        <v>0.8703255899915033</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.994354316955278</v>
+        <v>0.9931459660118314</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>296</v>
@@ -6056,19 +6056,19 @@
         <v>190173</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>184472</v>
+        <v>183696</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>193017</v>
+        <v>192958</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9754478488444311</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9462044287163082</v>
+        <v>0.9422232137779405</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9900317627031558</v>
+        <v>0.9897310516636922</v>
       </c>
     </row>
     <row r="6">
@@ -6160,19 +6160,19 @@
         <v>4785</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1870</v>
+        <v>1847</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10750</v>
+        <v>10408</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04569840041959427</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01786028344657528</v>
+        <v>0.01763811131398264</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1026624966844987</v>
+        <v>0.09939634897500489</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -6181,19 +6181,19 @@
         <v>3849</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1703</v>
+        <v>1749</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7784</v>
+        <v>7483</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06949015102936237</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03073972579982051</v>
+        <v>0.03157888374646192</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1405484267528944</v>
+        <v>0.1351034741494932</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -6202,19 +6202,19 @@
         <v>8634</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4657</v>
+        <v>4642</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14455</v>
+        <v>15040</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05392888824906996</v>
+        <v>0.05392888824906997</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02908970570840076</v>
+        <v>0.02899313470384343</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09028714290061314</v>
+        <v>0.09394364724572644</v>
       </c>
     </row>
     <row r="8">
@@ -6231,19 +6231,19 @@
         <v>99930</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>93965</v>
+        <v>94307</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>102845</v>
+        <v>102868</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9543015995804058</v>
+        <v>0.9543015995804057</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8973375033155013</v>
+        <v>0.9006036510249953</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9821397165534248</v>
+        <v>0.9823618886860175</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>91</v>
@@ -6252,19 +6252,19 @@
         <v>51536</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>47601</v>
+        <v>47902</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>53682</v>
+        <v>53636</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9305098489706375</v>
+        <v>0.9305098489706376</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8594515732471056</v>
+        <v>0.8648965258505069</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9692602742001796</v>
+        <v>0.9684211162535381</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>232</v>
@@ -6273,19 +6273,19 @@
         <v>151466</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>145645</v>
+        <v>145060</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>155443</v>
+        <v>155458</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9460711117509297</v>
+        <v>0.9460711117509301</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.909712857099387</v>
+        <v>0.9060563527542733</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9709102942915993</v>
+        <v>0.9710068652961567</v>
       </c>
     </row>
     <row r="9">
@@ -6377,19 +6377,19 @@
         <v>8254</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4337</v>
+        <v>4508</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13380</v>
+        <v>14296</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07338565206533139</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03855805562479277</v>
+        <v>0.0400818540757449</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1189597588245779</v>
+        <v>0.1271096092103011</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -6398,19 +6398,19 @@
         <v>5989</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3404</v>
+        <v>2996</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10729</v>
+        <v>10085</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1033155159356143</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05871582538223587</v>
+        <v>0.05167840790037557</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1850755029855904</v>
+        <v>0.1739717046589297</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -6419,19 +6419,19 @@
         <v>14243</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9006</v>
+        <v>9507</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20228</v>
+        <v>21071</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08356536544667674</v>
+        <v>0.08356536544667673</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0528365958527179</v>
+        <v>0.05577858028230254</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1186808400008651</v>
+        <v>0.1236269836253999</v>
       </c>
     </row>
     <row r="11">
@@ -6448,19 +6448,19 @@
         <v>104217</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>99091</v>
+        <v>98175</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>108134</v>
+        <v>107963</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9266143479346685</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8810402411754217</v>
+        <v>0.8728903907896979</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9614419443752069</v>
+        <v>0.9599181459242548</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>94</v>
@@ -6469,19 +6469,19 @@
         <v>51981</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47241</v>
+        <v>47885</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>54566</v>
+        <v>54974</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8966844840643857</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8149244970144097</v>
+        <v>0.8260282953410704</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.941284174617764</v>
+        <v>0.9483215920996244</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>245</v>
@@ -6490,19 +6490,19 @@
         <v>156198</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>150213</v>
+        <v>149370</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>161435</v>
+        <v>160934</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9164346345533233</v>
+        <v>0.9164346345533232</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8813191599991348</v>
+        <v>0.8763730163746003</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9471634041472822</v>
+        <v>0.9442214197176974</v>
       </c>
     </row>
     <row r="12">
@@ -6594,19 +6594,19 @@
         <v>27223</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19468</v>
+        <v>18884</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35868</v>
+        <v>36040</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1047026650594499</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0748759849386782</v>
+        <v>0.07262770656057291</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.137951467455988</v>
+        <v>0.1386128434692827</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -6615,19 +6615,19 @@
         <v>11434</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7513</v>
+        <v>7652</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16554</v>
+        <v>17052</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08736077445856857</v>
+        <v>0.08736077445856855</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05740092131134764</v>
+        <v>0.05846804684502038</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1264825445998418</v>
+        <v>0.1302881592208276</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -6636,19 +6636,19 @@
         <v>38657</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29474</v>
+        <v>30554</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49505</v>
+        <v>48919</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09889609620705041</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07540186579763437</v>
+        <v>0.07816575647743254</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1266472983380067</v>
+        <v>0.1251489299899448</v>
       </c>
     </row>
     <row r="14">
@@ -6665,19 +6665,19 @@
         <v>232783</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>224138</v>
+        <v>223966</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>240538</v>
+        <v>241122</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8952973349405502</v>
+        <v>0.8952973349405503</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8620485325440124</v>
+        <v>0.8613871565307173</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9251240150613221</v>
+        <v>0.9273722934394271</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>235</v>
@@ -6686,19 +6686,19 @@
         <v>119446</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>114326</v>
+        <v>113828</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>123367</v>
+        <v>123228</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9126392255414315</v>
+        <v>0.9126392255414314</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8735174554001579</v>
+        <v>0.8697118407791719</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9425990786886523</v>
+        <v>0.9415319531549793</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>568</v>
@@ -6707,19 +6707,19 @@
         <v>352229</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>341381</v>
+        <v>341967</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>361412</v>
+        <v>360332</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9011039037929495</v>
+        <v>0.9011039037929496</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8733527016619935</v>
+        <v>0.8748510700100551</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9245981342023657</v>
+        <v>0.9218342435225672</v>
       </c>
     </row>
     <row r="15">
@@ -6811,19 +6811,19 @@
         <v>8792</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5027</v>
+        <v>5065</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14020</v>
+        <v>14126</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08722412641801834</v>
+        <v>0.08722412641801836</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04987553156375141</v>
+        <v>0.05024793057945478</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1390975074743694</v>
+        <v>0.1401448205922833</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>81</v>
@@ -6832,19 +6832,19 @@
         <v>38413</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30484</v>
+        <v>30751</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46805</v>
+        <v>47642</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1747098227628188</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1386467195444576</v>
+        <v>0.1398631992795058</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2128795775165361</v>
+        <v>0.2166866066561982</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>96</v>
@@ -6853,19 +6853,19 @@
         <v>47204</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38402</v>
+        <v>38473</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57046</v>
+        <v>57233</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1472103143006916</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1197606855077693</v>
+        <v>0.1199805258564728</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1779022923006734</v>
+        <v>0.1784851286199596</v>
       </c>
     </row>
     <row r="17">
@@ -6882,19 +6882,19 @@
         <v>92001</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>86773</v>
+        <v>86667</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95766</v>
+        <v>95728</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9127758735819815</v>
+        <v>0.9127758735819818</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8609024925256306</v>
+        <v>0.8598551794077171</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9501244684362485</v>
+        <v>0.9497520694205454</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>361</v>
@@ -6903,19 +6903,19 @@
         <v>181453</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>173061</v>
+        <v>172224</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>189382</v>
+        <v>189115</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8252901772371812</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7871204224834636</v>
+        <v>0.7833133933438013</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8613532804555422</v>
+        <v>0.8601368007204941</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>494</v>
@@ -6924,19 +6924,19 @@
         <v>273456</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>263614</v>
+        <v>263427</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>282258</v>
+        <v>282187</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8527896856993084</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8220977076993267</v>
+        <v>0.8215148713800403</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8802393144922309</v>
+        <v>0.8800194741435272</v>
       </c>
     </row>
     <row r="18">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2187</v>
+        <v>1810</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1580662387414968</v>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.667446234804704</v>
+        <v>0.5526236564934454</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>119</v>
@@ -7049,19 +7049,19 @@
         <v>65514</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55656</v>
+        <v>54525</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79188</v>
+        <v>76404</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1898210789591313</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1612570586242236</v>
+        <v>0.1579815990606166</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2294398071069655</v>
+        <v>0.2213740109943274</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>120</v>
@@ -7070,19 +7070,19 @@
         <v>66032</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>55868</v>
+        <v>56624</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>77857</v>
+        <v>77752</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1895224848347492</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1603511943228671</v>
+        <v>0.1625196984257697</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2234637070186978</v>
+        <v>0.2231612300621768</v>
       </c>
     </row>
     <row r="20">
@@ -7099,7 +7099,7 @@
         <v>2758</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1087</v>
+        <v>1216</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>3276</v>
@@ -7108,7 +7108,7 @@
         <v>0.8419337612585031</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3317564873104306</v>
+        <v>0.3712526950812442</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -7120,19 +7120,19 @@
         <v>279622</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>265948</v>
+        <v>268732</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>289480</v>
+        <v>290611</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8101789210408686</v>
+        <v>0.8101789210408687</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7705601928930343</v>
+        <v>0.7786259890056728</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8387429413757763</v>
+        <v>0.8420184009393835</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>521</v>
@@ -7141,19 +7141,19 @@
         <v>282380</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>270555</v>
+        <v>270660</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>292544</v>
+        <v>291788</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8104775151652508</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7765362929813009</v>
+        <v>0.7768387699378231</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8396488056771327</v>
+        <v>0.8374803015742306</v>
       </c>
     </row>
     <row r="21">
@@ -7245,19 +7245,19 @@
         <v>51710</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39854</v>
+        <v>41108</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>64252</v>
+        <v>63458</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07369670212873808</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05679897507045047</v>
+        <v>0.0585861303480632</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0915703135289809</v>
+        <v>0.09043954078807669</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>246</v>
@@ -7266,19 +7266,19 @@
         <v>127847</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>113164</v>
+        <v>112373</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>144381</v>
+        <v>143297</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1446565203156527</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1280429012809546</v>
+        <v>0.1271477816760653</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1633640906643606</v>
+        <v>0.1621377536670242</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>323</v>
@@ -7287,19 +7287,19 @@
         <v>179557</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>159903</v>
+        <v>159532</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>198557</v>
+        <v>200949</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1132524561808762</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1008558230834504</v>
+        <v>0.1006219948795755</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1252365799933086</v>
+        <v>0.126744695485761</v>
       </c>
     </row>
     <row r="23">
@@ -7316,19 +7316,19 @@
         <v>649953</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>637411</v>
+        <v>638205</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>661809</v>
+        <v>660555</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.926303297871262</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9084296864710192</v>
+        <v>0.9095604592119234</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9432010249295498</v>
+        <v>0.9414138696519369</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1426</v>
@@ -7337,19 +7337,19 @@
         <v>755949</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>739415</v>
+        <v>740499</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>770632</v>
+        <v>771423</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8553434796843472</v>
+        <v>0.8553434796843471</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8366359093356395</v>
+        <v>0.8378622463329759</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8719570987190455</v>
+        <v>0.8728522183239346</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2356</v>
@@ -7358,19 +7358,19 @@
         <v>1405902</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1386902</v>
+        <v>1384510</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1425556</v>
+        <v>1425927</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8867475438191239</v>
+        <v>0.8867475438191238</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8747634200066914</v>
+        <v>0.8732553045142396</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8991441769165497</v>
+        <v>0.8993780051204247</v>
       </c>
     </row>
     <row r="24">
